--- a/xlsx/斯坦福大学_intext.xlsx
+++ b/xlsx/斯坦福大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1138">
   <si>
     <t>斯坦福大学</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%BB%92%E5%B0%BC%E8%A9%A9</t>
   </si>
   <si>
-    <t>約翰·軒尼詩</t>
+    <t>约翰·轩尼诗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Etchemendy</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%8A%E5%8D%80</t>
   </si>
   <si>
-    <t>郊區</t>
+    <t>郊区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Stanford_Daily</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全美大學體育協會</t>
+    <t>全美大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>太平洋十二校聯盟</t>
+    <t>太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%89%B2</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F%E7%B4%85</t>
   </si>
   <si>
-    <t>樞機紅</t>
+    <t>枢机红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>史丹福 (加利福尼亞州)</t>
+    <t>史丹福 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>加利福尼亞州州長</t>
+    <t>加利福尼亚州州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E8%98%AD%C2%B7%E5%8F%B2%E4%B8%B9%E7%A6%8F</t>
   </si>
   <si>
-    <t>利蘭·史丹福</t>
+    <t>利兰·史丹福</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jane_Stanford</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B7%E5%AF%92</t>
   </si>
   <si>
-    <t>傷寒</t>
+    <t>伤寒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Leland_Stanford,_Jr.</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次世界大戰</t>
+    <t>二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E7%89%B9%E6%9B%BC</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/SLAC%E5%9C%8B%E5%AE%B6%E5%8A%A0%E9%80%9F%E5%99%A8%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>SLAC國家加速器實驗室</t>
+    <t>SLAC国家加速器实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ARPANET</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%E8%B7%AF%E5%BE%B7%E9%87%91</t>
   </si>
   <si>
-    <t>馬丁路德金</t>
+    <t>马丁路德金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%B7%E6%AD%8C</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>昇陽電腦</t>
+    <t>昇阳电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾獎得主列表</t>
+    <t>各大学诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Frederick_Law_Olmsted</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shepley,_Rutan_and_Coolidge</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>西奧多·羅斯福</t>
+    <t>西奥多·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物學</t>
+    <t>植物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Douglas_Houghton_Campbell</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>動物學</t>
+    <t>动物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Charles_Henry_Gilbert</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/George_Elliott_Howard</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生理學</t>
+    <t>生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fernando_Sanford</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Maxson_Stillman</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Frank_Angell</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>一次世界大戰</t>
+    <t>一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1893%E5%B9%B4%E7%BB%8F%E6%B5%8E%E6%81%90%E6%85%8C</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E7%B4%80%E5%BF%B5%E6%95%99%E5%A0%82</t>
   </si>
   <si>
-    <t>史丹福紀念教堂</t>
+    <t>史丹福纪念教堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%A3%84%E5%BB%BA%E7%AF%89%E7%89%A9</t>
   </si>
   <si>
-    <t>廢棄建築物</t>
+    <t>废弃建筑物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Loma_Prieta_earthquake</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州大學</t>
+    <t>加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>英式橄欖球</t>
+    <t>英式橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
@@ -599,49 +599,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E7%A0%94%E7%A9%B6%E6%89%80%E5%9C%96%E6%9B%B8%E6%AA%94%E6%A1%88%E9%A4%A8</t>
   </si>
   <si>
-    <t>胡佛研究所圖書檔案館</t>
+    <t>胡佛研究所图书档案馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%88%B0</t>
   </si>
   <si>
-    <t>一戰</t>
+    <t>一战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>納粹</t>
+    <t>纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8E%8E%C2%B7%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>羅莎·盧森堡</t>
+    <t>罗莎·卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%88%88%E5%9F%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>約瑟夫·戈培爾</t>
+    <t>约瑟夫·戈培尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%87%8C%E5%AE%89%E8%81%94%E5%90%88%E5%85%AC%E5%8F%B8</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E5%AD%90%E8%83%BD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國原子能委員會</t>
+    <t>美国原子能委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%A1%BF%C2%B7%E9%87%8C%E5%85%8B%E7%89%B9</t>
@@ -677,31 +677,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB</t>
   </si>
   <si>
-    <t>諾貝爾獎得主</t>
+    <t>诺贝尔奖得主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>貝爾實驗室</t>
+    <t>贝尔实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%96%E5%85%8B%E5%88%A9%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>肖克利半導體實驗室</t>
+    <t>肖克利半导体实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%A4%9A%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>帕羅奧多研究中心</t>
+    <t>帕罗奥多研究中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SRI_International</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sand_Hill_Road</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_Shopping_Center</t>
@@ -761,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E7%A0%94%E7%A9%B6%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>史丹福研究園區</t>
+    <t>史丹福研究园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jasper_Ridge_Biological_Preserve</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E6%B4%9B%E6%B4%BE%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>門洛派克 (加利福尼亞州)</t>
+    <t>门洛派克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E8%B5%9B%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -797,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E5%8D%80%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
-    <t>美國郵區編號</t>
+    <t>美国邮区编号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E6%94%BF%E4%BF%A1%E7%AE%B1</t>
   </si>
   <si>
-    <t>郵政信箱</t>
+    <t>邮政信箱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Area_code_650</t>
@@ -833,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%8D%C2%B7%E6%B5%B7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>維爾納·海森堡</t>
+    <t>维尔纳·海森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_Axe</t>
@@ -893,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
+    <t>开普敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北京大學</t>
+    <t>北京大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%A5%91%E5%BC%8F%E5%85%AC%E5%AF%93</t>
@@ -947,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E5%A0%B1</t>
   </si>
   <si>
-    <t>真理報</t>
+    <t>真理报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_S._Knight_Fellowships_for_Professional_Journalist</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>海洋科學</t>
+    <t>海洋科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
@@ -995,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -1019,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -1037,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E7%BE%85%E4%B8%B9</t>
   </si>
   <si>
-    <t>奧古斯特·羅丹</t>
+    <t>奥古斯特·罗丹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Burghers_of_Calais</t>
@@ -1067,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BC%B4%E5%A5%8F%E5%90%88%E5%94%B1</t>
   </si>
   <si>
-    <t>無伴奏合唱</t>
+    <t>无伴奏合唱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A3%B0%E8%AA%89%E6%8E%92%E5%90%8D</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>普林斯頓評論</t>
+    <t>普林斯顿评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slate_(magazine)</t>
@@ -1103,37 +1103,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>喬布斯</t>
+    <t>乔布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Native_Americans_in_the_United_States</t>
@@ -1151,19 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>衛斯理大學</t>
+    <t>卫斯理大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>達特茅斯學院</t>
+    <t>达特茅斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%A4%A7%E5%AD%A6</t>
@@ -1175,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%9F%8F%E6%9E%97%E5%AD%A6%E9%99%A2</t>
@@ -1223,19 +1223,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學洛杉磯分校</t>
+    <t>加州大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>奧林匹克運動會</t>
+    <t>奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2008年夏季奧林匹克運動會</t>
+    <t>2008年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -1247,19 +1247,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
+    <t>隆纳·雷根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E8%93%8B%C2%B7%E5%B8%83%E6%9E%97</t>
   </si>
   <si>
-    <t>謝爾蓋·布林</t>
+    <t>谢尔盖·布林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E4%BD%A9%E5%A5%87</t>
@@ -1271,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%87%B4%E9%81%A0</t>
   </si>
   <si>
-    <t>楊致遠</t>
+    <t>杨致远</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%B2%BB%E7%BE%85</t>
   </si>
   <si>
-    <t>大衛·費羅</t>
+    <t>大卫·费罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E4%BC%91%E5%88%A9%E7%89%B9</t>
@@ -1289,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%B8%95%E5%8D%A1%E5%BE%B7</t>
   </si>
   <si>
-    <t>大衛·帕卡德</t>
+    <t>大卫·帕卡德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Phil_Knight</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
+    <t>思科系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sandra_Lerner</t>
@@ -1349,31 +1349,31 @@
     <t>https://zh.wikipedia.org/wiki/Gap_(%E6%9C%8D%E9%A3%BE)</t>
   </si>
   <si>
-    <t>Gap (服飾)</t>
+    <t>Gap (服饰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%BE%A4%E9%89%85</t>
   </si>
   <si>
-    <t>李澤鉅</t>
+    <t>李泽钜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%BE%A4%E6%A5%B7</t>
   </si>
   <si>
-    <t>李澤楷</t>
+    <t>李泽楷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A9%E5%B1%B1%E7%94%B1%E7%B4%80%E5%A4%AB</t>
   </si>
   <si>
-    <t>鳩山由紀夫</t>
+    <t>鸠山由纪夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F</t>
   </si>
   <si>
-    <t>沃倫·克里斯多福</t>
+    <t>沃伦·克里斯多福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%83%A1%E5%BE%B7%C2%B7%E5%B7%B4%E6%8B%89%E5%85%8B</t>
@@ -1385,19 +1385,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%96%84%E6%94%BF</t>
   </si>
   <si>
-    <t>張善政</t>
+    <t>张善政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>美國最高法院大法官</t>
+    <t>美国最高法院大法官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
   </si>
   <si>
-    <t>安東尼·肯尼迪</t>
+    <t>安东尼·肯尼迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%B8%83%E9%9B%B7%E8%80%B6</t>
@@ -1409,19 +1409,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%97%8D%E5%A5%8E%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>威廉·藍奎斯特</t>
+    <t>威廉·蓝奎斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%8B%89%C2%B7%E6%88%B4%C2%B7%E5%A5%A7%E5%BA%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>桑德拉·戴·奧康納</t>
+    <t>桑德拉·戴·奥康纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%8A%89%E6%B7%91%E5%84%80</t>
   </si>
   <si>
-    <t>葉劉淑儀</t>
+    <t>叶刘淑仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E7%AD%96%E5%A5%96</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E7%8D%8E%E7%AB%A0</t>
   </si>
   <si>
-    <t>美國國家科學獎章</t>
+    <t>美国国家科学奖章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Medal_of_Technology_and_Innovation</t>
@@ -1463,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國家科學院</t>
+    <t>美国国家科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%B7%A5%E7%A8%8B%E9%99%A2</t>
@@ -1481,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%93%B2%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國哲學會</t>
+    <t>美国哲学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E5%A4%AB%E5%A5%96</t>
@@ -1493,13 +1493,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E8%87%AA%E7%94%B1%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>總統自由勳章</t>
+    <t>总统自由勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%89%A9%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國物理學會</t>
+    <t>美国物理学会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Association_for_Computational_Linguistics</t>
@@ -1511,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國人工智能協會</t>
+    <t>美国人工智能协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>貝里學院</t>
+    <t>贝里学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paul_Smith%27s_College</t>
@@ -1535,13 +1535,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜克大學</t>
+    <t>杜克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E9%BB%91%E9%A9%AC%E5%8E%BF</t>
@@ -1559,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%A4%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布尤特郡 (加利福尼亞州)</t>
+    <t>布尤特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Abbey_of_New_Clairvaux</t>
@@ -1589,19 +1589,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>上海交通大學</t>
+    <t>上海交通大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>美國人口</t>
+    <t>美国人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>哥倫比亞大學出版社</t>
+    <t>哥伦比亚大学出版社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_University_School_of_Humanities_and_Sciences</t>
@@ -1631,13 +1631,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%95%86%E5%AD%B8%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>史丹福商學研究院</t>
+    <t>史丹福商学研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E6%B3%95%E5%BE%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史丹福法律學院</t>
+    <t>史丹福法律学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_School_of_Medicine</t>
@@ -1715,13 +1715,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E7%A0%94%E7%A9%B6%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>史丹佛研究園區</t>
+    <t>史丹佛研究园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%93%B2%E5%AD%B8%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>史丹佛哲學百科全書</t>
+    <t>史丹佛哲学百科全书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_Journal_of_East_Asian_Affairs</t>
@@ -1739,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>史丹福大學出版社</t>
+    <t>史丹福大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%B0%C2%B7%E6%96%AF%E5%9D%A6%E7%A6%8F</t>
@@ -1751,43 +1751,43 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8D%81%E4%BA%8C%E6%A0%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>Template talk-太平洋十二校聯盟</t>
+    <t>Template talk-太平洋十二校联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E9%87%91%E7%86%8A</t>
   </si>
   <si>
-    <t>加利福尼亞金熊</t>
+    <t>加利福尼亚金熊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡州立大學</t>
+    <t>俄勒冈州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓大學</t>
+    <t>华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華盛頓州立大學</t>
+    <t>华盛顿州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -1799,15 +1799,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大学洛杉矶分校</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1%E6%A3%95%E7%86%8A%E9%98%9F</t>
   </si>
   <si>
@@ -1829,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>科羅拉多大學波德分校</t>
+    <t>科罗拉多大学波德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%A4%A7%E5%AD%A6</t>
@@ -1841,21 +1838,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國大學協會</t>
+    <t>美国大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>加州大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
@@ -1865,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5%E5%88%86%E6%A0%A1</t>
@@ -1883,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多大學</t>
+    <t>科罗拉多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -1901,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -1931,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>馬里蘭大學學院市分校</t>
+    <t>马里兰大学学院市分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -1961,25 +1955,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約州立大學</t>
+    <t>纽约州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>石溪大學</t>
+    <t>石溪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -2003,13 +1997,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2021,13 +2015,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
+    <t>德克萨斯州立大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -2039,9 +2033,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>华盛顿大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%A4%A7%E5%AD%A6%E9%BA%A6%E8%BF%AA%E9%80%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
@@ -2051,13 +2042,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>私立大學</t>
+    <t>私立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2081,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱斯西儲大學</t>
+    <t>凯斯西储大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -2099,27 +2090,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>杜克大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>埃默里大學</t>
+    <t>埃默里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2129,9 +2114,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%A6_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
@@ -2147,9 +2129,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>宾夕法尼亚大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2159,19 +2138,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯大學</t>
+    <t>莱斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -2189,13 +2168,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>耶鲁大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加拿大大學列表</t>
+    <t>加拿大大学列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -2207,13 +2183,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -2231,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國大學體育協會</t>
+    <t>全国大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA%E7%AC%AC%E4%B8%80%E7%BA%A7%E5%88%AB</t>
@@ -2429,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邁阿密大學</t>
+    <t>迈阿密大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2447,37 +2423,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>堪薩斯州立大學</t>
+    <t>堪萨斯州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝勒大學</t>
+    <t>贝勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬州立大學</t>
+    <t>奥克拉荷马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%86%9C%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>德州农工大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯理工大學</t>
+    <t>德克萨斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬大學</t>
+    <t>奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6%E5%A5%A5%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
@@ -2507,13 +2480,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西大學</t>
+    <t>田纳西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞大學</t>
+    <t>乔治亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2531,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那州立大學</t>
+    <t>路易斯安那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -2543,7 +2516,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%A4%A7%E5%AD%A6</t>
@@ -2555,7 +2528,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅萊納大學</t>
+    <t>南卡罗莱纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E5%A4%A7%E5%AD%A6</t>
@@ -2597,19 +2570,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖母大學</t>
+    <t>圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E5%85%B9%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>匹兹堡大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%B6%AD%E7%99%BB%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>普羅維登斯學院</t>
+    <t>普罗维登斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%A4%A7%E5%AD%A6</t>
@@ -2633,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學</t>
+    <t>西弗吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%82%E7%B3%96%E7%A2%97</t>
@@ -2675,9 +2645,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>达特茅斯学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
   </si>
   <si>
@@ -2693,13 +2660,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>楊百翰大學</t>
+    <t>杨百翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A4%A7%E5%AD%A6</t>
@@ -2711,13 +2678,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科羅拉多學院</t>
+    <t>科罗拉多学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>丹佛大學</t>
+    <t>丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%9E%97%E6%A0%BC%E6%9E%97%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2729,19 +2696,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北密歇根大學</t>
+    <t>北密歇根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E5%88%A9%E7%88%BE%E6%B9%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蘇必利爾湖州立大學</t>
+    <t>苏必利尔湖州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%96%AF%E5%8B%92%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -2765,7 +2732,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多州立大學</t>
+    <t>科罗拉多州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%AC%A7%E6%96%87%E5%88%86%E6%A0%A1</t>
@@ -2789,7 +2756,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
@@ -2801,7 +2768,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學洛杉磯分校</t>
+    <t>加州州立大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A4%A7%E5%AD%A6</t>
@@ -2813,9 +2780,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>莱斯大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2843,57 +2807,54 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8C%B6%E5%A4%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國猶太大學</t>
+    <t>美国犹太大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%A0%BC%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿爾格西大學</t>
+    <t>阿尔格西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%87%E8%96%A9%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿蘇薩太平洋大學</t>
+    <t>阿苏萨太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E6%AD%90%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拜歐拉大學</t>
+    <t>拜欧拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞浸會大學</t>
+    <t>加利福尼亚浸会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E5%B2%B8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞海岸大學</t>
+    <t>加利福尼亚海岸大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2903,109 +2864,109 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%B7%AF%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞路德大學</t>
+    <t>加利福尼亚路德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%AF%86%E6%8B%89%E7%91%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州密拉瑪大學</t>
+    <t>加州密拉玛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%99%AE%E6%9B%BC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>查普曼大學</t>
+    <t>查普曼大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A0%BC%E5%A8%81%E7%88%BE%E5%B7%A5%E8%97%9D%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科格威爾工藝學院</t>
+    <t>科格威尔工艺学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>協和大學爾灣分校</t>
+    <t>协和大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞多明尼克大學</t>
+    <t>加利福尼亚多明尼克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>弗雷斯諾太平洋大學</t>
+    <t>弗雷斯诺太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%97%9C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>核關大學</t>
+    <t>核关大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%90%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖名大學</t>
+    <t>圣名大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>希望國際大學</t>
+    <t>希望国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BC%97%E8%90%8A%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>漢弗萊斯學院</t>
+    <t>汉弗莱斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E8%82%AF%E5%B0%BC%E8%BF%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰肯尼迪大學</t>
+    <t>约翰肯尼迪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%A5%E6%9C%9B%E4%BF%9D%E7%A5%BF%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大若望保祿天主教大學</t>
+    <t>大若望保禄天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%A5%BF%E7%91%9E%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉西瑞亞大學</t>
+    <t>拉西瑞亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>生命太平洋學院</t>
+    <t>生命太平洋学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯大學 (加利福尼亞州)</t>
+    <t>林肯大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9E%97%E9%81%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅馬林達大學</t>
+    <t>罗马林达大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%BA%A6%E6%8B%89%E9%A9%AC%E5%88%A9%E8%92%99%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3017,13 +2978,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%9A%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>曼隆學院</t>
+    <t>曼隆学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密爾斯學院</t>
+    <t>密尔斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%BE%B7%E5%A4%A7%E5%AD%A6%E8%92%99%E7%89%B9%E9%9B%B7%E5%9B%BD%E9%99%85%E7%A0%94%E7%A9%B6%E5%AD%A6%E9%99%A2</t>
@@ -3035,73 +2996,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖瑪麗山大學</t>
+    <t>圣玛丽山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A5%BF%E7%8F%AD%E7%89%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國家西班牙大學</t>
+    <t>国家西班牙大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>國立大學 (加利福尼亞州)</t>
+    <t>国立大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西北理工大學</t>
+    <t>西北理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E6%85%95%E7%88%BE%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>那慕爾聖母大學</t>
+    <t>那慕尔圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西方學院</t>
+    <t>西方学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A9%A1%E6%A8%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋橡樹學院</t>
+    <t>太平洋橡树学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%81%AF%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋聯合學院</t>
+    <t>太平洋联合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%9B%A0%E7%89%B9%E6%B4%9B%E9%A6%AC%E6%8B%BF%E6%92%92%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波因特洛馬拿撒勒大學</t>
+    <t>波因特洛马拿撒勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%81%96%E7%91%AA%E9%BA%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞聖瑪麗學院</t>
+    <t>加利福尼亚圣玛丽学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%E6%A2%85%E9%87%8C%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>塞繆爾梅里特大學</t>
+    <t>塞缪尔梅里特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖華金谷學院</t>
+    <t>圣华金谷学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
@@ -3113,55 +3074,52 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>矽谷大學</t>
+    <t>矽谷大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%99%AE%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>辛普森大學</t>
+    <t>辛普森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%B5%E5%83%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國創價大學</t>
+    <t>美国创价大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%E9%98%BF%E5%A5%8E%E9%82%A3%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>托馬斯阿奎那斯學院</t>
+    <t>托马斯阿奎那斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>三一國際大學</t>
+    <t>三一国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%9D%9C%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞杜魯大學</t>
+    <t>加利福尼亚杜鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉文大學</t>
+    <t>拉文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%98%AD%E8%8C%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷德蘭茲大學</t>
+    <t>雷德兰兹大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -3173,7 +3131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥大學</t>
+    <t>圣地牙哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%A4%A7%E5%AD%A6</t>
@@ -3191,67 +3149,67 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BE%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西來大學</t>
+    <t>西来大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%85%88%E9%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南加利福尼亞先鋒大學</t>
+    <t>南加利福尼亚先锋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E8%92%99%E7%89%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>維斯蒙特學院</t>
+    <t>维斯蒙特学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E8%92%82%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>惠蒂爾學院</t>
+    <t>惠蒂尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%82%91%E7%91%9F%E6%99%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威廉傑瑟普大學</t>
+    <t>威廉杰瑟普大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E4%BC%AF%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伍德伯里大學</t>
+    <t>伍德伯里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞大學</t>
+    <t>加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美熹德加利福尼亞大學</t>
+    <t>美熹德加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B2%B3%E6%BF%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學河濱分校</t>
+    <t>加州大学河滨分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥加利福尼亞大學</t>
+    <t>圣地牙哥加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%97%A7%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -3263,79 +3221,79 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞州立大學</t>
+    <t>加利福尼亚州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E4%BA%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞海事學院</t>
+    <t>加利福尼亚海事学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州理工州立大學</t>
+    <t>加州理工州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%B4%8D%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波莫納加州州立理工大學</t>
+    <t>波莫纳加州州立理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%B2%9D%E5%85%8B%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學貝克斯菲爾德分校</t>
+    <t>加州州立大学贝克斯菲尔德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學海峽群島分校</t>
+    <t>加州州立大学海峡群岛分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%87%E7%A7%91%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學奇科分校</t>
+    <t>加州州立大学奇科分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A4%9A%E6%98%8E%E6%A0%BC%E6%96%AF%E5%B1%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學多明格斯山分校</t>
+    <t>加州州立大学多明格斯山分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%9D%B1%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學東灣分校</t>
+    <t>加州州立大学东湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學弗雷斯諾分校</t>
+    <t>加州州立大学弗雷斯诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%AF%8C%E5%8B%92%E9%A0%93%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學富勒頓分校</t>
+    <t>加州州立大学富勒顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E9%95%BF%E6%BB%A9%E5%88%86%E6%A0%A1</t>
@@ -3347,55 +3305,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%92%99%E7%89%B9%E5%88%A9%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學蒙特利灣分校</t>
+    <t>加州州立大学蒙特利湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%8C%97%E5%B6%BA%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學北嶺分校</t>
+    <t>加州州立大学北岭分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學薩克拉門托分校</t>
+    <t>加州州立大学萨克拉门托分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖貝納迪諾分校</t>
+    <t>加州州立大学圣贝纳迪诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E9%A6%AC%E7%A7%91%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖馬科斯分校</t>
+    <t>加州州立大学圣马科斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%96%AF%E5%9D%A6%E5%B0%BC%E6%96%AF%E6%B4%9B%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學斯坦尼斯洛斯分校</t>
+    <t>加州州立大学斯坦尼斯洛斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洪堡州立大學</t>
+    <t>洪堡州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索諾馬州立大學</t>
+    <t>索诺马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3413,7 +3371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3425,7 +3383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3449,7 +3407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -12773,7 +12731,7 @@
         <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12799,10 +12757,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>596</v>
+      </c>
+      <c r="F310" t="s">
         <v>597</v>
-      </c>
-      <c r="F310" t="s">
-        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12828,10 +12786,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>598</v>
+      </c>
+      <c r="F311" t="s">
         <v>599</v>
-      </c>
-      <c r="F311" t="s">
-        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12857,10 +12815,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>600</v>
+      </c>
+      <c r="F312" t="s">
         <v>601</v>
-      </c>
-      <c r="F312" t="s">
-        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12886,10 +12844,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>602</v>
+      </c>
+      <c r="F313" t="s">
         <v>603</v>
-      </c>
-      <c r="F313" t="s">
-        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>4</v>
@@ -12915,10 +12873,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>604</v>
+      </c>
+      <c r="F314" t="s">
         <v>605</v>
-      </c>
-      <c r="F314" t="s">
-        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>4</v>
@@ -12944,10 +12902,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>606</v>
+      </c>
+      <c r="F315" t="s">
         <v>607</v>
-      </c>
-      <c r="F315" t="s">
-        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12973,10 +12931,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>608</v>
+      </c>
+      <c r="F316" t="s">
         <v>609</v>
-      </c>
-      <c r="F316" t="s">
-        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13031,10 +12989,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>186</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -13089,10 +13047,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13118,10 +13076,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13150,7 +13108,7 @@
         <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="G322" t="n">
         <v>8</v>
@@ -13176,10 +13134,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13205,10 +13163,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13234,10 +13192,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13263,10 +13221,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13292,10 +13250,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13321,10 +13279,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13350,10 +13308,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13379,10 +13337,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13408,10 +13366,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13437,10 +13395,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13466,10 +13424,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13495,10 +13453,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13524,10 +13482,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13553,10 +13511,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13582,10 +13540,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13611,10 +13569,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13640,10 +13598,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13669,10 +13627,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13698,10 +13656,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13727,10 +13685,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>4</v>
@@ -13756,10 +13714,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13814,10 +13772,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F345" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13843,10 +13801,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13872,10 +13830,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13901,10 +13859,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F348" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13930,10 +13888,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F349" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13959,10 +13917,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F350" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13988,10 +13946,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F351" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14017,10 +13975,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F352" t="s">
-        <v>674</v>
+        <v>588</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -14046,10 +14004,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14075,10 +14033,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G354" t="n">
         <v>6</v>
@@ -14104,10 +14062,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14133,10 +14091,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14191,10 +14149,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14220,10 +14178,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14249,10 +14207,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14278,10 +14236,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14307,10 +14265,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14336,10 +14294,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14365,10 +14323,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>508</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14394,10 +14352,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14423,10 +14381,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>98</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14452,10 +14410,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F367" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14481,10 +14439,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F368" t="s">
-        <v>704</v>
+        <v>112</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14510,10 +14468,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F369" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14539,10 +14497,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F370" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14568,10 +14526,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F371" t="s">
-        <v>710</v>
+        <v>386</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14597,10 +14555,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F372" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14626,10 +14584,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F373" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14655,10 +14613,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F374" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14684,10 +14642,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>598</v>
+      </c>
+      <c r="F375" t="s">
         <v>599</v>
-      </c>
-      <c r="F375" t="s">
-        <v>600</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14713,10 +14671,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14742,10 +14700,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14771,10 +14729,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F378" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14800,10 +14758,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F379" t="s">
-        <v>724</v>
+        <v>352</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14829,10 +14787,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F380" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14858,10 +14816,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F381" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14887,10 +14845,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F382" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14916,10 +14874,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F383" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14974,10 +14932,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F385" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15003,10 +14961,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F386" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15032,10 +14990,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15061,10 +15019,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15090,10 +15048,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -15119,10 +15077,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15148,10 +15106,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15177,10 +15135,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F392" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15206,10 +15164,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15235,10 +15193,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F394" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15264,10 +15222,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F395" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15293,10 +15251,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F396" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G396" t="n">
         <v>12</v>
@@ -15322,10 +15280,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F397" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15351,10 +15309,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F398" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15380,10 +15338,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F399" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15409,10 +15367,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F400" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15438,10 +15396,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F401" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15467,10 +15425,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F402" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15496,10 +15454,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F403" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15525,10 +15483,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F404" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15554,10 +15512,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F405" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15583,10 +15541,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15612,10 +15570,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15641,10 +15599,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15670,10 +15628,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F409" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15699,10 +15657,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F410" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G410" t="n">
         <v>3</v>
@@ -15728,10 +15686,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F411" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -15757,10 +15715,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F412" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G412" t="n">
         <v>5</v>
@@ -15786,10 +15744,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F413" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G413" t="n">
         <v>7</v>
@@ -15815,10 +15773,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F414" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G414" t="n">
         <v>3</v>
@@ -15844,10 +15802,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F415" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G415" t="n">
         <v>5</v>
@@ -15873,10 +15831,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F416" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G416" t="n">
         <v>6</v>
@@ -15902,10 +15860,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F417" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G417" t="n">
         <v>15</v>
@@ -15931,10 +15889,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F418" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G418" t="n">
         <v>5</v>
@@ -15960,10 +15918,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F419" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G419" t="n">
         <v>8</v>
@@ -15989,10 +15947,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F420" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G420" t="n">
         <v>4</v>
@@ -16018,10 +15976,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F421" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G421" t="n">
         <v>5</v>
@@ -16047,10 +16005,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F422" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -16076,10 +16034,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F423" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G423" t="n">
         <v>4</v>
@@ -16105,10 +16063,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F424" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16134,10 +16092,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F425" t="s">
-        <v>696</v>
+        <v>508</v>
       </c>
       <c r="G425" t="n">
         <v>5</v>
@@ -16163,10 +16121,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F426" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -16192,10 +16150,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F427" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G427" t="n">
         <v>3</v>
@@ -16221,10 +16179,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F428" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G428" t="n">
         <v>4</v>
@@ -16250,10 +16208,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F429" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G429" t="n">
         <v>5</v>
@@ -16279,10 +16237,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F430" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G430" t="n">
         <v>3</v>
@@ -16308,10 +16266,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F431" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G431" t="n">
         <v>3</v>
@@ -16337,10 +16295,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F432" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -16366,10 +16324,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F433" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16395,10 +16353,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F434" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G434" t="n">
         <v>3</v>
@@ -16424,10 +16382,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F435" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G435" t="n">
         <v>3</v>
@@ -16453,10 +16411,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F436" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16482,10 +16440,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F437" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G437" t="n">
         <v>3</v>
@@ -16511,10 +16469,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F438" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16540,10 +16498,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F439" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G439" t="n">
         <v>6</v>
@@ -16569,10 +16527,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F440" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G440" t="n">
         <v>4</v>
@@ -16598,10 +16556,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F441" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16627,10 +16585,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F442" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G442" t="n">
         <v>4</v>
@@ -16656,10 +16614,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F443" t="s">
-        <v>816</v>
+        <v>668</v>
       </c>
       <c r="G443" t="n">
         <v>3</v>
@@ -16685,10 +16643,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F444" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16714,10 +16672,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F445" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G445" t="n">
         <v>7</v>
@@ -16743,10 +16701,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F446" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16833,7 +16791,7 @@
         <v>595</v>
       </c>
       <c r="F449" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="G449" t="n">
         <v>4</v>
@@ -16859,10 +16817,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>598</v>
+      </c>
+      <c r="F450" t="s">
         <v>599</v>
-      </c>
-      <c r="F450" t="s">
-        <v>600</v>
       </c>
       <c r="G450" t="n">
         <v>4</v>
@@ -16888,10 +16846,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F451" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16917,10 +16875,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F452" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G452" t="n">
         <v>4</v>
@@ -16946,10 +16904,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F453" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G453" t="n">
         <v>4</v>
@@ -16975,10 +16933,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F454" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G454" t="n">
         <v>3</v>
@@ -17004,10 +16962,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F455" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G455" t="n">
         <v>6</v>
@@ -17033,10 +16991,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F456" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G456" t="n">
         <v>9</v>
@@ -17062,10 +17020,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F457" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -17091,10 +17049,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F458" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17120,10 +17078,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F459" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G459" t="n">
         <v>3</v>
@@ -17149,10 +17107,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F460" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="G460" t="n">
         <v>5</v>
@@ -17178,10 +17136,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F461" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -17207,10 +17165,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F462" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G462" t="n">
         <v>4</v>
@@ -17236,10 +17194,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F463" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17265,10 +17223,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F464" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -17294,10 +17252,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F465" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G465" t="n">
         <v>4</v>
@@ -17323,10 +17281,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F466" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17352,10 +17310,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F467" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17381,10 +17339,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F468" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17410,10 +17368,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F469" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17439,10 +17397,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F470" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G470" t="n">
         <v>3</v>
@@ -17468,10 +17426,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F471" t="s">
-        <v>862</v>
+        <v>660</v>
       </c>
       <c r="G471" t="n">
         <v>3</v>
@@ -17497,10 +17455,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F472" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17526,10 +17484,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F473" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17555,10 +17513,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F474" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17584,10 +17542,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F475" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G475" t="n">
         <v>4</v>
@@ -17613,10 +17571,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F476" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17642,10 +17600,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F477" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17671,10 +17629,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F478" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17700,10 +17658,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F479" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17729,10 +17687,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F480" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17758,10 +17716,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F481" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17787,10 +17745,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F482" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17816,10 +17774,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F483" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17845,10 +17803,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F484" t="s">
-        <v>700</v>
+        <v>98</v>
       </c>
       <c r="G484" t="n">
         <v>9</v>
@@ -17874,10 +17832,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F485" t="s">
-        <v>724</v>
+        <v>352</v>
       </c>
       <c r="G485" t="n">
         <v>5</v>
@@ -17903,10 +17861,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F486" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G486" t="n">
         <v>4</v>
@@ -17932,10 +17890,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F487" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G487" t="n">
         <v>4</v>
@@ -17961,10 +17919,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F488" t="s">
-        <v>886</v>
+        <v>382</v>
       </c>
       <c r="G488" t="n">
         <v>3</v>
@@ -17990,10 +17948,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F489" t="s">
-        <v>710</v>
+        <v>386</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -18048,10 +18006,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F491" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -18077,10 +18035,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F492" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18106,10 +18064,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F493" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18135,10 +18093,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F494" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18164,10 +18122,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F495" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18193,10 +18151,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F496" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18222,10 +18180,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F497" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18251,10 +18209,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F498" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G498" t="n">
         <v>23</v>
@@ -18280,10 +18238,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F499" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18309,10 +18267,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F500" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18338,10 +18296,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F501" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18367,10 +18325,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F502" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18396,10 +18354,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F503" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18425,10 +18383,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F504" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G504" t="n">
         <v>4</v>
@@ -18454,10 +18412,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F505" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18483,10 +18441,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F506" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18512,10 +18470,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F507" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18541,10 +18499,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F508" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18570,10 +18528,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F509" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18599,10 +18557,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F510" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18628,10 +18586,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F511" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18657,10 +18615,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F512" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18686,10 +18644,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F513" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18715,10 +18673,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F514" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18744,10 +18702,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F515" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G515" t="n">
         <v>4</v>
@@ -18773,10 +18731,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F516" t="s">
-        <v>932</v>
+        <v>707</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18802,10 +18760,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F517" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18831,10 +18789,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F518" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -18860,10 +18818,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="F519" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18889,10 +18847,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="F520" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18918,10 +18876,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="F521" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18947,10 +18905,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F522" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18976,10 +18934,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F523" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19005,10 +18963,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F524" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19034,10 +18992,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F525" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19063,10 +19021,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F526" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19092,10 +19050,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F527" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19121,10 +19079,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F528" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19150,10 +19108,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F529" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19179,10 +19137,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F530" t="s">
-        <v>958</v>
+        <v>681</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19208,10 +19166,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="F531" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19237,10 +19195,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="F532" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19266,10 +19224,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="F533" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19295,10 +19253,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="F534" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19324,10 +19282,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F535" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19353,10 +19311,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F536" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19382,10 +19340,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F537" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19411,10 +19369,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F538" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19440,10 +19398,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F539" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19469,10 +19427,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F540" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19498,10 +19456,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F541" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19527,10 +19485,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F542" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19556,10 +19514,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F543" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19585,10 +19543,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="F544" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19614,10 +19572,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F545" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19643,10 +19601,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F546" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19672,10 +19630,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="F547" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19701,10 +19659,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F548" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19730,10 +19688,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F549" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19759,10 +19717,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F550" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19788,10 +19746,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F551" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19817,10 +19775,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="F552" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19846,10 +19804,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F553" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19875,10 +19833,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="F554" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19904,10 +19862,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="F555" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19933,10 +19891,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="F556" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19962,10 +19920,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="F557" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19991,10 +19949,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F558" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20020,10 +19978,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="F559" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20049,10 +20007,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="F560" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20078,10 +20036,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F561" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20107,10 +20065,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F562" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20136,10 +20094,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="F563" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20165,10 +20123,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="F564" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20194,10 +20152,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="F565" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20223,10 +20181,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="F566" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20252,10 +20210,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="F567" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20281,10 +20239,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="F568" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20310,10 +20268,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="F569" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20339,10 +20297,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="F570" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20368,10 +20326,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="F571" t="s">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20397,10 +20355,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="F572" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20426,10 +20384,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="F573" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20455,10 +20413,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="F574" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20484,10 +20442,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="F575" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20513,10 +20471,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="F576" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20542,10 +20500,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="F577" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="G577" t="n">
         <v>3</v>
@@ -20571,10 +20529,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="F578" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20600,10 +20558,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="F579" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20629,10 +20587,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="F580" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20658,10 +20616,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="F581" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20687,10 +20645,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="F582" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20716,10 +20674,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="F583" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20745,10 +20703,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="F584" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20774,10 +20732,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="F585" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20803,10 +20761,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="F586" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20832,10 +20790,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="F587" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="G587" t="n">
         <v>3</v>
@@ -20861,10 +20819,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="F588" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20890,10 +20848,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F589" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G589" t="n">
         <v>2</v>
@@ -20922,7 +20880,7 @@
         <v>595</v>
       </c>
       <c r="F590" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="G590" t="n">
         <v>4</v>
@@ -20948,10 +20906,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="F591" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20977,10 +20935,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="F592" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21006,10 +20964,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="F593" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="G593" t="n">
         <v>3</v>
@@ -21035,10 +20993,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="F594" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="G594" t="n">
         <v>5</v>
@@ -21064,10 +21022,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="F595" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21093,10 +21051,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="F596" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21122,10 +21080,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="F597" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21151,10 +21109,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="F598" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21180,10 +21138,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="F599" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="G599" t="n">
         <v>2</v>
@@ -21209,10 +21167,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="F600" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21238,10 +21196,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="F601" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21267,10 +21225,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="F602" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21296,10 +21254,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="F603" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21325,10 +21283,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="F604" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21354,10 +21312,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="F605" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="G605" t="n">
         <v>2</v>
@@ -21383,10 +21341,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="F606" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="G606" t="n">
         <v>2</v>
@@ -21412,10 +21370,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="F607" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21441,10 +21399,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="F608" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21470,10 +21428,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="F609" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21499,10 +21457,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="F610" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21528,10 +21486,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="F611" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21557,10 +21515,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="F612" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21586,10 +21544,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="F613" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21615,10 +21573,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="F614" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21644,10 +21602,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="F615" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21673,10 +21631,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="F616" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21702,10 +21660,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="F617" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="G617" t="n">
         <v>3</v>
@@ -21731,10 +21689,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="F618" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21760,10 +21718,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="F619" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="G619" t="n">
         <v>3</v>
@@ -21789,10 +21747,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="F620" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21818,10 +21776,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="F621" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21847,10 +21805,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="F622" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21876,10 +21834,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="F623" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -21905,10 +21863,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="F624" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -21934,10 +21892,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="F625" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -21963,10 +21921,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="F626" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -21992,10 +21950,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="F627" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22021,10 +21979,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="F628" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22050,10 +22008,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="F629" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="G629" t="n">
         <v>5</v>
@@ -22079,10 +22037,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="F630" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
